--- a/pred_ohlcv/54_21/2020-01-16 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>664006.90232727</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>621955.89212727</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>997448.99482727</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>969011.32062727</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>857664.4834272701</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>963636.5224272701</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>848964.60462727</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>803441.3116272701</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>979863.2071272701</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>917898.63572727</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>876216.5984272701</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>970878.85002727</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>970878.85002727</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>705685.3440272701</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>843037.8866272701</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>633977.2690272701</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>793697.6273272701</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>786818.8987272701</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>783946.8987272701</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>716275.8987272701</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>770964.9348272701</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>914398.7306272701</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1113618.64852727</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1155460.65632727</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1435536.57142436</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1390395.94932436</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1457255.68782436</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1177179.77282436</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1627519.78772436</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1459462.07082436</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1823364.19812436</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1817296.03922436</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2021059.27202436</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2004308.85332436</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1949961.41892436</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2011512.01102436</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2009235.62012436</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1103960.90692436</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1465181.99542436</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1465081.99542436</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1458983.14232436</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1543453.46992436</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1615453.46992436</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1615553.46992436</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1697553.83292436</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1668941.33162436</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2512917.42202436</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2514066.37642436</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2516754.13212436</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2695139.96192436</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2730124.56222436</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2688599.05082436</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2694334.34512436</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2523440.85212436</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4665368.837224361</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4651422.044824361</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4662090.430424361</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4532433.121624361</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4536033.121624361</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4424520.104124361</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4560432.50462436</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4517810.73332436</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4591306.83582436</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4569699.95412436</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4583695.77872436</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4482247.19172436</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4552414.68432436</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4601241.691824359</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4604647.662524359</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4578176.583224359</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4635876.984424359</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4657679.372724359</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5006209.808424359</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5208313.176424359</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5038599.68302436</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>5028617.58302436</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>5032957.939224361</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5086999.195724361</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5107279.847024361</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5351536.34832436</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5337118.12732436</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5487638.69762436</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5720615.83432436</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5717374.97652436</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5657929.386724359</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4337187.843324359</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4460783.666124359</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5761266.897221617</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>6298401.234921617</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>6298401.234921617</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>6801485.197821617</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>6741175.865521617</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>6736964.481721617</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>6732241.987521618</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>6267888.462221618</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>6112565.366321618</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>6121956.323321618</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>6117643.320721618</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>6254281.266699958</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>6092928.083699958</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>6034244.955099958</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>6032579.272599958</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5608102.294499958</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>5608248.462799958</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5676898.462799958</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>5673053.462799958</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>5676079.180799958</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5617396.052099958</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 IOST ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>538414.53932727</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>801269.33722727</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>742767.32672727</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>908976.7439272701</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>997448.99482727</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>969011.32062727</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>857664.4834272701</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>963636.5224272701</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>848964.60462727</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>803441.3116272701</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>979863.2071272701</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>917898.63572727</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>876216.5984272701</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>970878.85002727</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>970878.85002727</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>705685.3440272701</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>843037.8866272701</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>633977.2690272701</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>793697.6273272701</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>786818.8987272701</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>783946.8987272701</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>716275.8987272701</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>770964.9348272701</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>914398.7306272701</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1113618.64852727</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1155460.65632727</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1435536.57142436</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1390395.94932436</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1457255.68782436</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1177179.77282436</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1627519.78772436</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1459462.07082436</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1823364.19812436</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1817296.03922436</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2021059.27202436</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2004308.85332436</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1949961.41892436</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2011512.01102436</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2009235.62012436</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1103960.90692436</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1465181.99542436</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1465081.99542436</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1458983.14232436</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1543453.46992436</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1615453.46992436</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1615553.46992436</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1697553.83292436</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1668941.33162436</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2512917.42202436</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2514066.37642436</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2516754.13212436</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2695139.96192436</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2730124.56222436</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2688599.05082436</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2694334.34512436</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2523440.85212436</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4665368.837224361</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4651422.044824361</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4662090.430424361</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4532433.121624361</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4536033.121624361</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4424520.104124361</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4560432.50462436</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4517810.73332436</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4591306.83582436</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4569699.95412436</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4583695.77872436</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4482247.19172436</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4552414.68432436</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4601241.691824359</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4604647.662524359</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4578176.583224359</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4635876.984424359</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4657679.372724359</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5006209.808424359</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5208313.176424359</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5038599.68302436</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>5028617.58302436</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>5032957.939224361</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5086999.195724361</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5107279.847024361</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5351536.34832436</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5337118.12732436</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5487638.69762436</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5720615.83432436</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5717374.97652436</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5657929.386724359</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4337187.843324359</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4460783.666124359</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>5800080.276524357</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>5761266.897221617</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5761266.897221617</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>6298401.234921617</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>6298401.234921617</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>6801485.197821617</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>6741175.865521617</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>6736964.481721617</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>6732241.987521618</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>6267888.462221618</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>6112565.366321618</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>6121956.323321618</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>6117643.320721618</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>6254281.266699958</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>6092928.083699958</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>6034244.955099958</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>6032579.272599958</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5608102.294499958</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
